--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>134.7658298446317</v>
+        <v>120.931707774829</v>
       </c>
       <c r="R2">
-        <v>1212.892468601685</v>
+        <v>1088.385369973461</v>
       </c>
       <c r="S2">
-        <v>0.02043129786354299</v>
+        <v>0.01952489585260499</v>
       </c>
       <c r="T2">
-        <v>0.02043129786354299</v>
+        <v>0.01952489585260499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>605.8758061616139</v>
+        <v>444.2772813025283</v>
       </c>
       <c r="R3">
-        <v>5452.882255454525</v>
+        <v>3998.495531722755</v>
       </c>
       <c r="S3">
-        <v>0.09185436010206315</v>
+        <v>0.07173029974290893</v>
       </c>
       <c r="T3">
-        <v>0.09185436010206315</v>
+        <v>0.07173029974290894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H4">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>668.9803713576279</v>
+        <v>426.4441539435349</v>
       </c>
       <c r="R4">
-        <v>6020.82334221865</v>
+        <v>3837.997385491815</v>
       </c>
       <c r="S4">
-        <v>0.1014213858797068</v>
+        <v>0.06885107178179468</v>
       </c>
       <c r="T4">
-        <v>0.1014213858797068</v>
+        <v>0.06885107178179468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H5">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>106.6996984589128</v>
+        <v>77.77314445059599</v>
       </c>
       <c r="R5">
-        <v>960.2972861302148</v>
+        <v>699.958300055364</v>
       </c>
       <c r="S5">
-        <v>0.01617630614286686</v>
+        <v>0.01255677748597508</v>
       </c>
       <c r="T5">
-        <v>0.01617630614286686</v>
+        <v>0.01255677748597508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H6">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>595.9428745487828</v>
+        <v>388.9272039316767</v>
       </c>
       <c r="R6">
-        <v>5363.485870939046</v>
+        <v>3500.34483538509</v>
       </c>
       <c r="S6">
-        <v>0.09034846884851672</v>
+        <v>0.06279381388667887</v>
       </c>
       <c r="T6">
-        <v>0.09034846884851673</v>
+        <v>0.06279381388667889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J7">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>2.992936865262667</v>
+        <v>3.662582843494667</v>
       </c>
       <c r="R7">
-        <v>26.936431787364</v>
+        <v>32.963245591452</v>
       </c>
       <c r="S7">
-        <v>0.000453746952409658</v>
+        <v>0.0005913382841158866</v>
       </c>
       <c r="T7">
-        <v>0.0004537469524096581</v>
+        <v>0.0005913382841158866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
         <v>13.45554758296222</v>
@@ -948,10 +948,10 @@
         <v>121.09992824666</v>
       </c>
       <c r="S8">
-        <v>0.002039940694918876</v>
+        <v>0.002172450633760014</v>
       </c>
       <c r="T8">
-        <v>0.002039940694918877</v>
+        <v>0.002172450633760014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J9">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>14.85700060528444</v>
+        <v>12.91544683095333</v>
       </c>
       <c r="R9">
-        <v>133.71300544756</v>
+        <v>116.23902147858</v>
       </c>
       <c r="S9">
-        <v>0.002252409272256609</v>
+        <v>0.002085249260961059</v>
       </c>
       <c r="T9">
-        <v>0.00225240927225661</v>
+        <v>0.002085249260961059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J10">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>2.369632282888444</v>
+        <v>2.355466484272</v>
       </c>
       <c r="R10">
-        <v>21.32669054599599</v>
+        <v>21.199198358448</v>
       </c>
       <c r="S10">
-        <v>0.0003592502866236736</v>
+        <v>0.0003802992501796534</v>
       </c>
       <c r="T10">
-        <v>0.0003592502866236736</v>
+        <v>0.0003802992501796534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J11">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>13.23495281321644</v>
+        <v>11.77919447843111</v>
       </c>
       <c r="R11">
-        <v>119.114575318948</v>
+        <v>106.01275030588</v>
       </c>
       <c r="S11">
-        <v>0.002006497221502716</v>
+        <v>0.0019017968872744</v>
       </c>
       <c r="T11">
-        <v>0.002006497221502717</v>
+        <v>0.001901796887274401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H12">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>136.077554383413</v>
+        <v>224.822444359417</v>
       </c>
       <c r="R12">
-        <v>1224.697989450717</v>
+        <v>2023.401999234753</v>
       </c>
       <c r="S12">
-        <v>0.02063016307141992</v>
+        <v>0.03629846044694132</v>
       </c>
       <c r="T12">
-        <v>0.02063016307141992</v>
+        <v>0.03629846044694132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H13">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>611.773014402845</v>
+        <v>825.9496718740681</v>
       </c>
       <c r="R13">
-        <v>5505.957129625604</v>
+        <v>7433.547046866614</v>
       </c>
       <c r="S13">
-        <v>0.09274841179364429</v>
+        <v>0.1333527957188997</v>
       </c>
       <c r="T13">
-        <v>0.09274841179364431</v>
+        <v>0.1333527957188997</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H14">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>675.49179914377</v>
+        <v>792.7963545415548</v>
       </c>
       <c r="R14">
-        <v>6079.42619229393</v>
+        <v>7135.167190873994</v>
       </c>
       <c r="S14">
-        <v>0.1024085568915945</v>
+        <v>0.1280000633379846</v>
       </c>
       <c r="T14">
-        <v>0.1024085568915946</v>
+        <v>0.1280000633379846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H15">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>107.738245195207</v>
+        <v>144.586963689108</v>
       </c>
       <c r="R15">
-        <v>969.6442067568628</v>
+        <v>1301.282673201972</v>
       </c>
       <c r="S15">
-        <v>0.01633375597817674</v>
+        <v>0.02334412917520882</v>
       </c>
       <c r="T15">
-        <v>0.01633375597817675</v>
+        <v>0.02334412917520882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H16">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>601.743401975941</v>
+        <v>723.0491181733967</v>
       </c>
       <c r="R16">
-        <v>5415.690617783469</v>
+        <v>6507.44206356057</v>
       </c>
       <c r="S16">
-        <v>0.09122786315615797</v>
+        <v>0.1167391000128743</v>
       </c>
       <c r="T16">
-        <v>0.091227863156158</v>
+        <v>0.1167391000128743</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H17">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I17">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J17">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>29.68756555016867</v>
+        <v>17.45937083790033</v>
       </c>
       <c r="R17">
-        <v>267.188089951518</v>
+        <v>157.134337541103</v>
       </c>
       <c r="S17">
-        <v>0.004500810741849301</v>
+        <v>0.002818883513137378</v>
       </c>
       <c r="T17">
-        <v>0.004500810741849302</v>
+        <v>0.002818883513137378</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H18">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I18">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J18">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>133.4683853571856</v>
+        <v>64.14200172842942</v>
       </c>
       <c r="R18">
-        <v>1201.21546821467</v>
+        <v>577.278015555865</v>
       </c>
       <c r="S18">
-        <v>0.02023459759601237</v>
+        <v>0.01035597633217137</v>
       </c>
       <c r="T18">
-        <v>0.02023459759601237</v>
+        <v>0.01035597633217137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H19">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I19">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J19">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>147.3696904426911</v>
+        <v>61.56736527047165</v>
       </c>
       <c r="R19">
-        <v>1326.32721398422</v>
+        <v>554.1062874342449</v>
       </c>
       <c r="S19">
-        <v>0.02234211776801287</v>
+        <v>0.009940291234979611</v>
       </c>
       <c r="T19">
-        <v>0.02234211776801288</v>
+        <v>0.009940291234979613</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H20">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I20">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J20">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>23.5048772810891</v>
+        <v>11.228404817708</v>
       </c>
       <c r="R20">
-        <v>211.5438955298019</v>
+        <v>101.055643359372</v>
       </c>
       <c r="S20">
-        <v>0.003563478587484732</v>
+        <v>0.001812869748476905</v>
       </c>
       <c r="T20">
-        <v>0.003563478587484733</v>
+        <v>0.001812869748476905</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H21">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I21">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J21">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>131.2802597863251</v>
+        <v>56.15090043245222</v>
       </c>
       <c r="R21">
-        <v>1181.522338076926</v>
+        <v>505.35810389207</v>
       </c>
       <c r="S21">
-        <v>0.01990286480178237</v>
+        <v>0.009065781862726796</v>
       </c>
       <c r="T21">
-        <v>0.01990286480178237</v>
+        <v>0.0090657818627268</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H22">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>117.3144620696357</v>
+        <v>146.7284178191933</v>
       </c>
       <c r="R22">
-        <v>1055.830158626721</v>
+        <v>1320.55576037274</v>
       </c>
       <c r="S22">
-        <v>0.01778556716498059</v>
+        <v>0.02368987529615916</v>
       </c>
       <c r="T22">
-        <v>0.01778556716498059</v>
+        <v>0.02368987529615916</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H23">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>527.4185182015406</v>
+        <v>539.048887657411</v>
       </c>
       <c r="R23">
-        <v>4746.766663813864</v>
+        <v>4851.439988916699</v>
       </c>
       <c r="S23">
-        <v>0.0799597706373148</v>
+        <v>0.08703154519714959</v>
       </c>
       <c r="T23">
-        <v>0.0799597706373148</v>
+        <v>0.08703154519714959</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H24">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>582.3514201741211</v>
+        <v>517.4116627285665</v>
       </c>
       <c r="R24">
-        <v>5241.16278156709</v>
+        <v>4656.7049645571</v>
       </c>
       <c r="S24">
-        <v>0.08828792387916054</v>
+        <v>0.0835381308474433</v>
       </c>
       <c r="T24">
-        <v>0.08828792387916055</v>
+        <v>0.0835381308474433</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H25">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>92.8827265942021</v>
+        <v>94.36342745863999</v>
       </c>
       <c r="R25">
-        <v>835.9445393478188</v>
+        <v>849.2708471277599</v>
       </c>
       <c r="S25">
-        <v>0.01408157138654508</v>
+        <v>0.01523534337954897</v>
       </c>
       <c r="T25">
-        <v>0.01408157138654508</v>
+        <v>0.01523534337954897</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H26">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>518.7718417385441</v>
+        <v>471.8917340189556</v>
       </c>
       <c r="R26">
-        <v>4668.946575646897</v>
+        <v>4247.0256061706</v>
       </c>
       <c r="S26">
-        <v>0.07864888328145583</v>
+        <v>0.07618876083004451</v>
       </c>
       <c r="T26">
-        <v>0.07864888328145585</v>
+        <v>0.07618876083004453</v>
       </c>
     </row>
   </sheetData>
